--- a/Moodle-Q.xlsx
+++ b/Moodle-Q.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiago/Google Drive/Professor/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiago/Documents/GitHub/Moodle-Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CE3EB-322D-324B-AAA8-1A625A59E2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D787E32-A037-854C-92B7-D912E472D4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="27140" windowHeight="14040" xr2:uid="{1461645F-2DFB-B248-82F1-86BE3ED61FD9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Questão</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Qual é a porta de comunicação utilizada no serviço XYZ?</t>
+  </si>
+  <si>
+    <t>Atenção: Manter a linha exemplo em vermelho</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,10 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +535,7 @@
   <dimension ref="A1:Y327"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="24" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -549,6 +559,10 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -584,26 +598,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>80</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>53</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>25</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>22</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>23</v>
       </c>
     </row>
